--- a/views/financeiro/relatorios/resumo_campanha_70.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_70.xlsx
@@ -716,10 +716,10 @@
         <v>70.0</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>3500.0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -768,10 +768,10 @@
         <v>25.4</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>1270.0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,10 +794,10 @@
         <v>107.28</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>4770.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -877,10 +877,10 @@
         <v>38.4</v>
       </c>
       <c r="H18" s="8">
-        <v>0</v>
+        <v>1920.0</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -903,10 +903,10 @@
         <v>38.4</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>1920.0</v>
       </c>
       <c r="I19" s="9">
-        <v>0.0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -960,10 +960,10 @@
         <v>15.996</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>799.8</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0</v>
+        <v>15.996</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1012,10 +1012,10 @@
         <v>24.996</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>799.8</v>
       </c>
       <c r="I24" s="9">
-        <v>0.0</v>
+        <v>15.996</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,10 +1069,10 @@
         <v>107.28</v>
       </c>
       <c r="H27" s="8">
-        <v>0</v>
+        <v>4770.0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1095,10 +1095,10 @@
         <v>38.4</v>
       </c>
       <c r="H28" s="8">
-        <v>0</v>
+        <v>1920.0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1121,10 +1121,10 @@
         <v>24.996</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>799.8</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0</v>
+        <v>15.996</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>170.676</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>7489.8</v>
       </c>
       <c r="I30" s="9">
-        <v>0.0</v>
+        <v>149.796</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1220,10 +1220,10 @@
         <v>5850.0</v>
       </c>
       <c r="E36" s="13">
-        <v>2350.0</v>
+        <v>5850.0</v>
       </c>
       <c r="F36" s="12">
-        <v>3500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1254,10 +1254,10 @@
         <v>3220.0</v>
       </c>
       <c r="E38" s="13">
-        <v>1950.0</v>
+        <v>3220.0</v>
       </c>
       <c r="F38" s="12">
-        <v>1270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1295,10 +1295,10 @@
         <v>1920.0</v>
       </c>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>1920.0</v>
       </c>
       <c r="F41" s="12">
-        <v>1920.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1319,10 +1319,10 @@
         <v>3196.7</v>
       </c>
       <c r="E43" s="13">
-        <v>2396.9</v>
+        <v>3196.7</v>
       </c>
       <c r="F43" s="12">
-        <v>799.8</v>
+        <v>-2.2737367544323E-13</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="E45" s="9">
         <f>sum(E34:E44)</f>
-        <v>19519.9</v>
+        <v>27009.7</v>
       </c>
       <c r="F45" s="9">
         <f>sum(F34:F44)</f>
-        <v>8533.8</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E46" s="15">
         <f>(E45/D45)</f>
-        <v>0.69580483144826</v>
+        <v>0.96278565750685</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E47" s="15">
         <f>(F45/D45)</f>
-        <v>0.30419516855174</v>
+        <v>0.037214342493147</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_70.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_70.xlsx
@@ -664,10 +664,10 @@
         <v>11.88</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>594.0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -794,10 +794,10 @@
         <v>107.28</v>
       </c>
       <c r="H13" s="9">
-        <v>4770.0</v>
+        <v>5364.0</v>
       </c>
       <c r="I13" s="9">
-        <v>95.4</v>
+        <v>107.28</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1069,10 +1069,10 @@
         <v>107.28</v>
       </c>
       <c r="H27" s="8">
-        <v>4770.0</v>
+        <v>5364.0</v>
       </c>
       <c r="I27" s="8">
-        <v>95.4</v>
+        <v>107.28</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>170.676</v>
       </c>
       <c r="H30" s="9">
-        <v>7489.8</v>
+        <v>8083.8</v>
       </c>
       <c r="I30" s="9">
-        <v>149.796</v>
+        <v>161.676</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1186,10 +1186,10 @@
         <v>5994.0</v>
       </c>
       <c r="E34" s="13">
-        <v>5400.0</v>
+        <v>5994.0</v>
       </c>
       <c r="F34" s="12">
-        <v>594.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="E45" s="9">
         <f>sum(E34:E44)</f>
-        <v>27009.7</v>
+        <v>27603.7</v>
       </c>
       <c r="F45" s="9">
         <f>sum(F34:F44)</f>
-        <v>1044</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E46" s="15">
         <f>(E45/D45)</f>
-        <v>0.96278565750685</v>
+        <v>0.98395933513226</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E47" s="15">
         <f>(F45/D45)</f>
-        <v>0.037214342493147</v>
+        <v>0.016040664867736</v>
       </c>
     </row>
   </sheetData>
